--- a/static/test-data.xlsx
+++ b/static/test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19522979-062C-A142-8F6E-81AF016014B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA08767-5F2D-F940-BC59-35510A4A5F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="19200" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="119">
   <si>
     <t>Earning per month</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Financially broke and can barely bear his expenses</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -804,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,7 +827,7 @@
     <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,8 +855,11 @@
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -881,8 +887,11 @@
       <c r="I2" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -910,8 +919,11 @@
       <c r="I3" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -939,8 +951,11 @@
       <c r="I4" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -968,8 +983,11 @@
       <c r="I5" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -997,8 +1015,11 @@
       <c r="I6" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1026,8 +1047,11 @@
       <c r="I7" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1055,8 +1079,11 @@
       <c r="I8" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1084,8 +1111,11 @@
       <c r="I9" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1113,8 +1143,11 @@
       <c r="I10" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1142,8 +1175,11 @@
       <c r="I11" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1171,8 +1207,11 @@
       <c r="I12" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1200,8 +1239,11 @@
       <c r="I13" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1229,8 +1271,11 @@
       <c r="I14" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1258,8 +1303,11 @@
       <c r="I15" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1287,8 +1335,11 @@
       <c r="I16" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1316,8 +1367,11 @@
       <c r="I17" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1345,8 +1399,11 @@
       <c r="I18" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1374,8 +1431,11 @@
       <c r="I19" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1403,8 +1463,11 @@
       <c r="I20" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1432,8 +1495,11 @@
       <c r="I21" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1461,8 +1527,11 @@
       <c r="I22" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1490,8 +1559,11 @@
       <c r="I23" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1519,8 +1591,11 @@
       <c r="I24" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1548,8 +1623,11 @@
       <c r="I25" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1577,8 +1655,11 @@
       <c r="I26" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>27</v>
       </c>
@@ -1606,8 +1687,11 @@
       <c r="I27" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>28</v>
       </c>
@@ -1635,8 +1719,11 @@
       <c r="I28" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>29</v>
       </c>
@@ -1664,8 +1751,11 @@
       <c r="I29" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>30</v>
       </c>
@@ -1693,8 +1783,11 @@
       <c r="I30" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>31</v>
       </c>
@@ -1722,8 +1815,11 @@
       <c r="I31" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -1751,8 +1847,11 @@
       <c r="I32" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>33</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="I33" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>34</v>
       </c>
@@ -1809,8 +1911,11 @@
       <c r="I34" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>36</v>
       </c>
@@ -1838,8 +1943,11 @@
       <c r="I35" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>37</v>
       </c>
@@ -1867,8 +1975,11 @@
       <c r="I36" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>39</v>
       </c>
@@ -1896,8 +2007,11 @@
       <c r="I37" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>40</v>
       </c>
@@ -1925,8 +2039,11 @@
       <c r="I38" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>41</v>
       </c>
@@ -1954,8 +2071,11 @@
       <c r="I39" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>42</v>
       </c>
@@ -1983,8 +2103,11 @@
       <c r="I40" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>43</v>
       </c>
@@ -2012,8 +2135,11 @@
       <c r="I41" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -2022,7 +2148,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -2031,7 +2157,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -2040,7 +2166,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -2049,7 +2175,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -2058,7 +2184,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
